--- a/timeseries.xlsx
+++ b/timeseries.xlsx
@@ -1,54 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,694 +426,768 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>5165.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>43159</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>4799.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>43190</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5305.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>43220</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>4999.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>43251</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>4995.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>4802</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>43312</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>4635.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>43343</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>4818</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>4657</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>43404</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>4761.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>43434</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>4912.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>5340.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>5270.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>43524</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>4892.9</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>43555</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>5318</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>43585</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>4865.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>43616</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>5092.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>4908.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>43677</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>5128.7</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>43708</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>5093.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>4972.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>43769</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>4953.6</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>43799</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>5002</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>4987.8</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>43861</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>5149.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>43890</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>4964.2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>5448.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>43951</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>4974</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>43982</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>5393</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44012</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>5213.1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>44043</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>5423.9</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>44074</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>5189.1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>5035.1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>44135</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>5123.1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>44165</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>5381.2</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>5438.9</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>44227</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>5691.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>44255</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>5073.1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>5708.1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44316</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>5303.6</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44347</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>5602</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>5236</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>44408</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>5265.8</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44439</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>5318.1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>44469</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>5056.3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>44500</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>5474.7</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>44530</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>5504.1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>5753.7</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>44592</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>5507.6</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>44620</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>5196</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>5313</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>44681</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>4583.9</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>44712</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>5037.4</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>4982.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>44773</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>5003.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>44804</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>5030.4</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>44834</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>4654.6</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>44865</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>5071.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>5022.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>5101.7</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>5210.8</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>4797</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>5229.9</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>45046</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>5099.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>45077</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>5358.2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>5354.6</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>45138</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>5315.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>45169</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>5446.9</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>45199</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>5269.4</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>45230</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>5609.6</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>5360.2</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>5710</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>45322</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>5603.7</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>5393.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>45382</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>6087.5</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>45412</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>5562.1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>45443</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>5787.4</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>5482.8</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>45504</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>5552.6</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>45535</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>5641.2</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>45565</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>5150.8</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>45596</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>5648.1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>45626</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>5766</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>6055.1</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6201.9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5765.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6418.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5694.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5945.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5507.8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5522.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5850.4</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>